--- a/results/tests_results/y_predictions.xlsx
+++ b/results/tests_results/y_predictions.xlsx
@@ -1397,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -2629,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
